--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729F81D-35A3-4543-B86F-978E35EA47AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1544,7 +1545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2064,7 +2065,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2102,9 +2103,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2137,9 +2138,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2172,9 +2190,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2347,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6278,14 +6313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6854,13 +6889,13 @@
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="34"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="46">
         <v>15</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="47">
         <v>15</v>
       </c>
       <c r="G32" s="35"/>
@@ -6871,13 +6906,13 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="34"/>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="46">
         <v>13</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="47">
         <v>27</v>
       </c>
       <c r="G33" s="35"/>
@@ -6888,13 +6923,13 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="34"/>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="46">
         <v>5</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="47">
         <v>27</v>
       </c>
       <c r="G34" s="35"/>
@@ -6905,13 +6940,13 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="34"/>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="46">
         <v>5</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="47">
         <v>29</v>
       </c>
       <c r="G35" s="35"/>
@@ -6922,13 +6957,13 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="34"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="46">
         <v>2</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="47">
         <v>47</v>
       </c>
       <c r="G36" s="35"/>
@@ -6939,13 +6974,13 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="34"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="46">
         <v>6</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="47">
         <v>22</v>
       </c>
       <c r="G37" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729F81D-35A3-4543-B86F-978E35EA47AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF5A84-6CC5-4481-9E8E-3E5AB7181ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6319,8 +6319,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:F44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6991,13 +6991,13 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="34"/>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="46">
         <v>6</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="47">
         <v>15</v>
       </c>
       <c r="G38" s="35"/>
@@ -7008,13 +7008,13 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="34"/>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="46">
         <v>5</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="47">
         <v>22</v>
       </c>
       <c r="G39" s="35"/>
@@ -7025,13 +7025,13 @@
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="34"/>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="46">
         <v>4</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="47">
         <v>4</v>
       </c>
       <c r="G40" s="35"/>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="34"/>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="46">
         <v>9</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="47">
         <v>16</v>
       </c>
       <c r="G41" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF5A84-6CC5-4481-9E8E-3E5AB7181ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD6955-F496-4C1D-9623-B790E1B0BDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6319,8 +6319,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7059,13 +7059,13 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="34"/>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="46">
         <v>12</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="47">
         <v>4</v>
       </c>
       <c r="G42" s="35"/>
@@ -7076,13 +7076,13 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="34"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="46">
         <v>5</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="47">
         <v>16</v>
       </c>
       <c r="G43" s="24" t="s">
@@ -7101,13 +7101,13 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="34"/>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="48">
         <v>11</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="49">
         <v>7</v>
       </c>
       <c r="G44" s="7">
@@ -7122,7 +7122,7 @@
         <f>G44+(H44/60)</f>
         <v>129.9</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="56" t="s">
         <v>296</v>
       </c>
       <c r="K44" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD6955-F496-4C1D-9623-B790E1B0BDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1545,7 +1544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2065,7 +2064,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2103,9 +2102,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2138,26 +2137,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,26 +2172,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2382,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6313,14 +6278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,13 +7094,13 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="34"/>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="50">
         <v>12</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="51">
         <v>58</v>
       </c>
       <c r="G45" s="35"/>
@@ -7146,13 +7111,13 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="34"/>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="52">
         <v>12</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="53">
         <v>52</v>
       </c>
       <c r="G46" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AE68CE-E98B-4DEF-9881-6AE88EA1CAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1544,7 +1545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2064,7 +2065,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2102,9 +2103,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2137,9 +2138,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2172,9 +2190,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2347,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6278,14 +6313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7128,13 +7163,13 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="34"/>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="52">
         <v>7</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="53">
         <v>58</v>
       </c>
       <c r="G47" s="35"/>
@@ -7145,13 +7180,13 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="34"/>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="52">
         <v>5</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="53">
         <v>20</v>
       </c>
       <c r="G48" s="35"/>
@@ -7162,13 +7197,13 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="34"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="52">
         <v>7</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="53">
         <v>44</v>
       </c>
       <c r="G49" s="35"/>
@@ -7179,13 +7214,13 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="34"/>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="52">
         <v>5</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="53">
         <v>22</v>
       </c>
       <c r="G50" s="35"/>
@@ -7196,13 +7231,13 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="34"/>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="52">
         <v>4</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="53">
         <v>27</v>
       </c>
       <c r="G51" s="35"/>
@@ -7213,13 +7248,13 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="34"/>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="52">
         <v>1</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="53">
         <v>55</v>
       </c>
       <c r="G52" s="35"/>
@@ -7230,13 +7265,13 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="34"/>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="52">
         <v>9</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="53">
         <v>35</v>
       </c>
       <c r="G53" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AE68CE-E98B-4DEF-9881-6AE88EA1CAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF435C52-6E53-4DE8-8424-D179B74A5C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6319,8 +6319,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7282,13 +7282,13 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="34"/>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="52">
         <v>4</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="53">
         <v>37</v>
       </c>
       <c r="G54" s="35"/>
@@ -7299,13 +7299,13 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="34"/>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="52">
         <v>14</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="53">
         <v>20</v>
       </c>
       <c r="G55" s="35"/>
@@ -7316,13 +7316,13 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="34"/>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="52">
         <v>5</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="53">
         <v>56</v>
       </c>
       <c r="G56" s="35"/>
@@ -7333,13 +7333,13 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="34"/>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="52">
         <v>2</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="53">
         <v>34</v>
       </c>
       <c r="G57" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF435C52-6E53-4DE8-8424-D179B74A5C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF171C9-A6A1-415B-A9E4-0327C626A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,15 @@
     <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1882,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2039,6 +2048,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6319,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6596,15 +6614,15 @@
       <c r="F16" s="49">
         <v>55</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="59">
         <f>SUM(E6:E16)</f>
         <v>56</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="60">
         <f>SUM(F6:F16)</f>
         <v>316</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="61">
         <f>G16+(H16/60)</f>
         <v>61.266666666666666</v>
       </c>
@@ -6802,15 +6820,15 @@
       <c r="F27" s="55">
         <v>43</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="59">
         <f>SUM(E17:E27)</f>
         <v>67</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="60">
         <f>SUM(F17:F27)</f>
         <v>290</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="61">
         <f>G27+(H27/60)</f>
         <v>71.833333333333329</v>
       </c>
@@ -7110,15 +7128,15 @@
       <c r="F44" s="49">
         <v>7</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="59">
         <f>SUM(E28:E44)</f>
         <v>124</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="60">
         <f>SUM(F28:F44)</f>
         <v>354</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="61">
         <f>G44+(H44/60)</f>
         <v>129.9</v>
       </c>
@@ -7350,13 +7368,13 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="34"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="52">
         <v>5</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="53">
         <v>26</v>
       </c>
       <c r="G58" s="35"/>
@@ -7367,13 +7385,13 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" s="34"/>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="52">
         <v>11</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="53">
         <v>13</v>
       </c>
       <c r="G59" s="35"/>
@@ -7384,13 +7402,13 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" s="34"/>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="52">
         <v>12</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="53">
         <v>35</v>
       </c>
       <c r="G60" s="35"/>
@@ -7401,13 +7419,13 @@
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" s="34"/>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="52">
         <v>21</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="53">
         <v>36</v>
       </c>
       <c r="G61" s="35"/>
@@ -7418,13 +7436,13 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="34"/>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="52">
         <v>1</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="53">
         <v>53</v>
       </c>
       <c r="G62" s="35"/>
@@ -7435,13 +7453,13 @@
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="34"/>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="52">
         <v>16</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="53">
         <v>39</v>
       </c>
       <c r="G63" s="35"/>
@@ -7452,13 +7470,13 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="34"/>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="52">
         <v>3</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="53">
         <v>38</v>
       </c>
       <c r="G64" s="35"/>
@@ -7469,13 +7487,13 @@
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="34"/>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="52">
         <v>9</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="53">
         <v>39</v>
       </c>
       <c r="G65" s="24" t="s">
@@ -7494,28 +7512,28 @@
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="34"/>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="54">
         <v>9</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="55">
         <v>4</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="59">
         <f>SUM(E45:E66)</f>
         <v>174</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="60">
         <f>SUM(F45:F66)</f>
         <v>801</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="61">
         <f>G66+(H66/60)</f>
         <v>187.35</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J66" s="56" t="s">
         <v>298</v>
       </c>
       <c r="K66" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF171C9-A6A1-415B-A9E4-0327C626A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1554,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2043,12 +2042,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2057,6 +2050,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,7 +2082,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2121,9 +2120,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2156,26 +2155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,26 +2190,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2400,7 +2365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2421,10 +2386,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="O4" s="57"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D5" s="21" t="s">
@@ -6331,14 +6296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6456,10 +6421,10 @@
       <c r="M9" s="34"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="Q9" s="58"/>
+      <c r="Q9" s="61"/>
       <c r="R9" s="37"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
@@ -6614,15 +6579,15 @@
       <c r="F16" s="49">
         <v>55</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="57">
         <f>SUM(E6:E16)</f>
         <v>56</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="58">
         <f>SUM(F6:F16)</f>
         <v>316</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="59">
         <f>G16+(H16/60)</f>
         <v>61.266666666666666</v>
       </c>
@@ -6820,15 +6785,15 @@
       <c r="F27" s="55">
         <v>43</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="57">
         <f>SUM(E17:E27)</f>
         <v>67</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="58">
         <f>SUM(F17:F27)</f>
         <v>290</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="59">
         <f>G27+(H27/60)</f>
         <v>71.833333333333329</v>
       </c>
@@ -7128,15 +7093,15 @@
       <c r="F44" s="49">
         <v>7</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="57">
         <f>SUM(E28:E44)</f>
         <v>124</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="58">
         <f>SUM(F28:F44)</f>
         <v>354</v>
       </c>
-      <c r="I44" s="61">
+      <c r="I44" s="59">
         <f>G44+(H44/60)</f>
         <v>129.9</v>
       </c>
@@ -7521,15 +7486,15 @@
       <c r="F66" s="55">
         <v>4</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G66" s="57">
         <f>SUM(E45:E66)</f>
         <v>174</v>
       </c>
-      <c r="H66" s="60">
+      <c r="H66" s="58">
         <f>SUM(F45:F66)</f>
         <v>801</v>
       </c>
-      <c r="I66" s="61">
+      <c r="I66" s="59">
         <f>G66+(H66/60)</f>
         <v>187.35</v>
       </c>
@@ -7540,13 +7505,13 @@
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" s="34"/>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="44">
         <v>21</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="45">
         <v>47</v>
       </c>
       <c r="G67" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89796B-79A1-4C92-893B-AB1449278F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1553,7 +1554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2082,7 +2083,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2120,9 +2121,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2155,9 +2156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,9 +2208,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2365,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6296,14 +6331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7522,13 +7557,13 @@
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" s="34"/>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="46">
         <v>14</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="47">
         <v>2</v>
       </c>
       <c r="G68" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89796B-79A1-4C92-893B-AB1449278F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50B836-C6B0-4B75-ABEE-F98360D87522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1589,7 +1589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,6 +1617,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2057,6 +2063,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6337,8 +6355,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7574,13 +7592,13 @@
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" s="34"/>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="46">
         <v>3</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="47">
         <v>47</v>
       </c>
       <c r="G69" s="35"/>
@@ -7591,13 +7609,13 @@
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" s="34"/>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="46">
         <v>2</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="47">
         <v>43</v>
       </c>
       <c r="G70" s="35"/>
@@ -7608,13 +7626,13 @@
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" s="34"/>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="46">
         <v>3</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="47">
         <v>28</v>
       </c>
       <c r="G71" s="35"/>
@@ -7625,13 +7643,13 @@
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" s="34"/>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="46">
         <v>6</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="47">
         <v>17</v>
       </c>
       <c r="G72" s="35"/>
@@ -7744,19 +7762,19 @@
       <c r="F78" s="17">
         <v>12</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="62">
         <f>SUM(E67:E78)</f>
         <v>84</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="63">
         <f>SUM(F67:F78)</f>
         <v>396</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="64">
         <f>G78+(H78/60)</f>
         <v>90.6</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="J78" s="65" t="s">
         <v>297</v>
       </c>
       <c r="K78" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50B836-C6B0-4B75-ABEE-F98360D87522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31407E4D-4818-46DF-9ED4-AC771BD3DD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1589,7 +1589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,12 +1617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,18 +2057,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6355,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7660,13 +7642,13 @@
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" s="34"/>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="46">
         <v>12</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="47">
         <v>50</v>
       </c>
       <c r="G73" s="35"/>
@@ -7677,13 +7659,13 @@
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" s="34"/>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="46">
         <v>3</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="47">
         <v>20</v>
       </c>
       <c r="G74" s="35"/>
@@ -7694,13 +7676,13 @@
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" s="34"/>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="46">
         <v>6</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="47">
         <v>42</v>
       </c>
       <c r="G75" s="35"/>
@@ -7711,13 +7693,13 @@
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" s="34"/>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="46">
         <v>4</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="47">
         <v>44</v>
       </c>
       <c r="G76" s="35"/>
@@ -7728,13 +7710,13 @@
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" s="34"/>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="46">
         <v>8</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="47">
         <v>44</v>
       </c>
       <c r="G77" s="24" t="s">
@@ -7753,28 +7735,28 @@
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" s="34"/>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="48">
         <v>2</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="49">
         <v>12</v>
       </c>
-      <c r="G78" s="62">
+      <c r="G78" s="57">
         <f>SUM(E67:E78)</f>
         <v>84</v>
       </c>
-      <c r="H78" s="63">
+      <c r="H78" s="58">
         <f>SUM(F67:F78)</f>
         <v>396</v>
       </c>
-      <c r="I78" s="64">
+      <c r="I78" s="59">
         <f>G78+(H78/60)</f>
         <v>90.6</v>
       </c>
-      <c r="J78" s="65" t="s">
+      <c r="J78" s="56" t="s">
         <v>297</v>
       </c>
       <c r="K78" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31407E4D-4818-46DF-9ED4-AC771BD3DD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB9E04-4710-40D6-BB4D-9223DDAFF837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7763,13 +7763,13 @@
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="34"/>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="50">
         <v>5</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="51">
         <v>16</v>
       </c>
       <c r="G79" s="35"/>
@@ -7780,13 +7780,13 @@
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" s="34"/>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="52">
         <v>5</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="53">
         <v>47</v>
       </c>
       <c r="G80" s="35"/>
@@ -7797,13 +7797,13 @@
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="34"/>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="52">
         <v>7</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="53">
         <v>21</v>
       </c>
       <c r="G81" s="35"/>
@@ -7814,13 +7814,13 @@
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" s="34"/>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="52">
         <v>6</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="53">
         <v>50</v>
       </c>
       <c r="G82" s="35"/>
@@ -7831,13 +7831,13 @@
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" s="34"/>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="52">
         <v>5</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="53">
         <v>7</v>
       </c>
       <c r="G83" s="35"/>
@@ -7848,13 +7848,13 @@
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" s="34"/>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="52">
         <v>11</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="53">
         <v>7</v>
       </c>
       <c r="G84" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB9E04-4710-40D6-BB4D-9223DDAFF837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9397BA34-204D-4A5C-8245-241136149305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,13 +7865,13 @@
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" s="34"/>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="52">
         <v>18</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="53">
         <v>7</v>
       </c>
       <c r="G85" s="35"/>
@@ -7882,13 +7882,13 @@
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" s="34"/>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="52">
         <v>4</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="53">
         <v>9</v>
       </c>
       <c r="G86" s="35"/>
@@ -7899,13 +7899,13 @@
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" s="34"/>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="52">
         <v>1</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="53">
         <v>59</v>
       </c>
       <c r="G87" s="35"/>
@@ -7916,13 +7916,13 @@
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" s="34"/>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="52">
         <v>4</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="53">
         <v>42</v>
       </c>
       <c r="G88" s="35"/>
@@ -7933,13 +7933,13 @@
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" s="34"/>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="52">
         <v>8</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="53">
         <v>8</v>
       </c>
       <c r="G89" s="35"/>
@@ -7950,13 +7950,13 @@
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" s="34"/>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="52">
         <v>1</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="53">
         <v>28</v>
       </c>
       <c r="G90" s="35"/>
@@ -7967,13 +7967,13 @@
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" s="34"/>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="52">
         <v>8</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="53">
         <v>55</v>
       </c>
       <c r="G91" s="24" t="s">
@@ -7992,13 +7992,13 @@
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" s="34"/>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="54">
         <v>10</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="55">
         <v>1</v>
       </c>
       <c r="G92" s="7">

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9397BA34-204D-4A5C-8245-241136149305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC05986-4DDC-4A08-B5BB-6F8B4A5FF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8020,13 +8020,13 @@
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" s="34"/>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="44">
         <v>8</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="45">
         <v>37</v>
       </c>
       <c r="G93" s="35"/>
@@ -8037,13 +8037,13 @@
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" s="34"/>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="46">
         <v>4</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="47">
         <v>2</v>
       </c>
       <c r="G94" s="35"/>
@@ -8054,13 +8054,13 @@
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" s="34"/>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="46">
         <v>9</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="47">
         <v>20</v>
       </c>
       <c r="G95" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC05986-4DDC-4A08-B5BB-6F8B4A5FF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21FB98F-4689-4E5D-A2F4-757AABFF4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8001,19 +8001,19 @@
       <c r="F92" s="55">
         <v>1</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="57">
         <f>SUM(E79:E92)</f>
         <v>93</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="58">
         <f>SUM(F79:F92)</f>
         <v>357</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="59">
         <f>G92+(H92/60)</f>
         <v>98.95</v>
       </c>
-      <c r="J92" s="5" t="s">
+      <c r="J92" s="56" t="s">
         <v>297</v>
       </c>
       <c r="K92" s="37"/>
@@ -8071,13 +8071,13 @@
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" s="34"/>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="46">
         <v>7</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="47">
         <v>12</v>
       </c>
       <c r="G96" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21FB98F-4689-4E5D-A2F4-757AABFF4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143FFB7-EBBC-45CE-AA96-9446FE7EF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6338,7 +6338,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,13 +8088,13 @@
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" s="34"/>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="46">
         <v>7</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="47">
         <v>30</v>
       </c>
       <c r="G97" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143FFB7-EBBC-45CE-AA96-9446FE7EF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1554,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2083,7 +2082,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2121,9 +2120,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2156,26 +2155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,26 +2190,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2400,7 +2365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6331,14 +6296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8105,13 +8070,13 @@
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" s="34"/>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="46">
         <v>10</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="47">
         <v>57</v>
       </c>
       <c r="G98" s="35"/>
@@ -8122,13 +8087,13 @@
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" s="34"/>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="46">
         <v>1</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="47">
         <v>24</v>
       </c>
       <c r="G99" s="35"/>
@@ -8139,13 +8104,13 @@
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="34"/>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="46">
         <v>3</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="47">
         <v>37</v>
       </c>
       <c r="G100" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -10,7 +10,7 @@
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1557,7 +1557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,6 +1583,12 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1890,7 +1896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,6 +2062,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6302,8 +6314,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8121,13 +8133,13 @@
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" s="34"/>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="46">
         <v>11</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="47">
         <v>50</v>
       </c>
       <c r="G101" s="35"/>
@@ -8138,13 +8150,13 @@
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" s="34"/>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="46">
         <v>7</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="47">
         <v>34</v>
       </c>
       <c r="G102" s="35"/>
@@ -8155,13 +8167,13 @@
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" s="34"/>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="46">
         <v>10</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="47">
         <v>29</v>
       </c>
       <c r="G103" s="35"/>
@@ -8172,13 +8184,13 @@
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" s="34"/>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="46">
         <v>1</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="47">
         <v>52</v>
       </c>
       <c r="G104" s="35"/>
@@ -8189,13 +8201,13 @@
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" s="34"/>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="46">
         <v>3</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="47">
         <v>43</v>
       </c>
       <c r="G105" s="35"/>
@@ -8206,13 +8218,13 @@
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" s="34"/>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="46">
         <v>4</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="47">
         <v>40</v>
       </c>
       <c r="G106" s="35"/>
@@ -8223,13 +8235,13 @@
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" s="34"/>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="46">
         <v>5</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="47">
         <v>12</v>
       </c>
       <c r="G107" s="24" t="s">
@@ -8248,13 +8260,13 @@
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" s="34"/>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="62" t="s">
         <v>387</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="62">
         <v>9</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="63">
         <v>44</v>
       </c>
       <c r="G108" s="7">

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AC0F8-3859-4E1D-95FF-F64458CB31D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1553,11 +1554,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,12 +1584,6 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1896,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,12 +2058,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,7 +2083,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2132,9 +2121,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2167,9 +2156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2202,9 +2208,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2377,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6308,14 +6331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8260,28 +8283,28 @@
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" s="34"/>
-      <c r="D108" s="62" t="s">
+      <c r="D108" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="E108" s="62">
+      <c r="E108" s="48">
         <v>9</v>
       </c>
-      <c r="F108" s="63">
+      <c r="F108" s="49">
         <v>44</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="57">
         <f>SUM(E93:E108)</f>
         <v>99</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="58">
         <f>SUM(F93:F108)</f>
         <v>523</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="59">
         <f>G108+(H108/60)</f>
         <v>107.71666666666667</v>
       </c>
-      <c r="J108" s="5" t="s">
+      <c r="J108" s="56" t="s">
         <v>296</v>
       </c>
       <c r="K108" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AC0F8-3859-4E1D-95FF-F64458CB31D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439440B-2B93-414F-85D0-6A052F4F377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439440B-2B93-414F-85D0-6A052F4F377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1554,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2083,7 +2082,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2121,9 +2120,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2156,26 +2155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,26 +2190,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2400,7 +2365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6331,14 +6296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8311,13 +8276,13 @@
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" s="34"/>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="50">
         <v>13</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="51">
         <v>27</v>
       </c>
       <c r="G109" s="35"/>
@@ -8328,13 +8293,13 @@
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" s="34"/>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="52">
         <v>2</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F110" s="53">
         <v>14</v>
       </c>
       <c r="G110" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE90D9-5D65-439C-816F-EE5A09C381C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1553,7 +1554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2082,7 +2083,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2120,9 +2121,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2155,9 +2156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,9 +2208,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2365,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6296,14 +6331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8310,13 +8345,13 @@
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" s="34"/>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="52">
         <v>3</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F111" s="53">
         <v>56</v>
       </c>
       <c r="G111" s="35"/>
@@ -8327,13 +8362,13 @@
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112" s="34"/>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="52">
         <v>4</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F112" s="53">
         <v>23</v>
       </c>
       <c r="G112" s="35"/>
@@ -8344,13 +8379,13 @@
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113" s="34"/>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="52">
         <v>5</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="53">
         <v>31</v>
       </c>
       <c r="G113" s="35"/>
@@ -8361,13 +8396,13 @@
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114" s="34"/>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="52">
         <v>9</v>
       </c>
-      <c r="F114" s="19">
+      <c r="F114" s="53">
         <v>31</v>
       </c>
       <c r="G114" s="35"/>
@@ -8378,13 +8413,13 @@
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115" s="34"/>
-      <c r="D115" s="13" t="s">
+      <c r="D115" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="52">
         <v>10</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="53">
         <v>47</v>
       </c>
       <c r="G115" s="35"/>
@@ -8395,13 +8430,13 @@
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116" s="34"/>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="52">
         <v>3</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="53">
         <v>36</v>
       </c>
       <c r="G116" s="35"/>
@@ -8412,13 +8447,13 @@
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117" s="34"/>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="52">
         <v>5</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="53">
         <v>57</v>
       </c>
       <c r="G117" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE90D9-5D65-439C-816F-EE5A09C381C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D92475-10B9-4E40-A1C4-3FC062B87772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8464,13 +8464,13 @@
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118" s="34"/>
-      <c r="D118" s="13" t="s">
+      <c r="D118" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="52">
         <v>4</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F118" s="53">
         <v>38</v>
       </c>
       <c r="G118" s="35"/>
@@ -8481,13 +8481,13 @@
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119" s="34"/>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="52">
         <v>12</v>
       </c>
-      <c r="F119" s="19">
+      <c r="F119" s="53">
         <v>14</v>
       </c>
       <c r="G119" s="35"/>
@@ -8498,13 +8498,13 @@
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120" s="34"/>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="E120" s="13">
+      <c r="E120" s="52">
         <v>6</v>
       </c>
-      <c r="F120" s="19">
+      <c r="F120" s="53">
         <v>16</v>
       </c>
       <c r="G120" s="35"/>
@@ -8515,13 +8515,13 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121" s="34"/>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="52">
         <v>3</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="53">
         <v>35</v>
       </c>
       <c r="G121" s="35"/>
@@ -8532,13 +8532,13 @@
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122" s="34"/>
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="E122" s="13">
+      <c r="E122" s="52">
         <v>5</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="53">
         <v>14</v>
       </c>
       <c r="G122" s="35"/>
@@ -8549,13 +8549,13 @@
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123" s="34"/>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="52">
         <v>2</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F123" s="53">
         <v>29</v>
       </c>
       <c r="G123" s="35"/>
@@ -8566,13 +8566,13 @@
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124" s="34"/>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="52">
         <v>6</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F124" s="53">
         <v>32</v>
       </c>
       <c r="G124" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D92475-10B9-4E40-A1C4-3FC062B87772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4D96D-75F9-4E9D-A7CB-86E260FEE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M131" sqref="M131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8583,13 +8583,13 @@
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125" s="34"/>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="52">
         <v>5</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F125" s="53">
         <v>14</v>
       </c>
       <c r="G125" s="35"/>
@@ -8600,13 +8600,13 @@
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126" s="34"/>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="E126" s="13">
+      <c r="E126" s="52">
         <v>4</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="53">
         <v>32</v>
       </c>
       <c r="G126" s="35"/>
@@ -8617,13 +8617,13 @@
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127" s="34"/>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="52">
         <v>4</v>
       </c>
-      <c r="F127" s="19">
+      <c r="F127" s="53">
         <v>1</v>
       </c>
       <c r="G127" s="35"/>
@@ -8634,13 +8634,13 @@
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128" s="34"/>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="E128" s="13">
+      <c r="E128" s="52">
         <v>15</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="53">
         <v>13</v>
       </c>
       <c r="G128" s="35"/>
@@ -8651,13 +8651,13 @@
     </row>
     <row r="129" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C129" s="34"/>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="E129" s="13">
+      <c r="E129" s="52">
         <v>3</v>
       </c>
-      <c r="F129" s="19">
+      <c r="F129" s="53">
         <v>36</v>
       </c>
       <c r="G129" s="35"/>
@@ -8668,13 +8668,13 @@
     </row>
     <row r="130" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C130" s="34"/>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="E130" s="13">
+      <c r="E130" s="52">
         <v>5</v>
       </c>
-      <c r="F130" s="19">
+      <c r="F130" s="53">
         <v>6</v>
       </c>
       <c r="G130" s="35"/>
@@ -8685,13 +8685,13 @@
     </row>
     <row r="131" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C131" s="34"/>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="52">
         <v>2</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F131" s="53">
         <v>52</v>
       </c>
       <c r="G131" s="35"/>
@@ -8702,13 +8702,13 @@
     </row>
     <row r="132" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C132" s="34"/>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="E132" s="13">
+      <c r="E132" s="52">
         <v>2</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="53">
         <v>52</v>
       </c>
       <c r="G132" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4D96D-75F9-4E9D-A7CB-86E260FEE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1554,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2083,7 +2082,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2121,9 +2120,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2156,26 +2155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,26 +2190,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2400,7 +2365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6331,14 +6296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M141" sqref="M141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8719,13 +8684,13 @@
     </row>
     <row r="133" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C133" s="34"/>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="52" t="s">
         <v>410</v>
       </c>
-      <c r="E133" s="13">
+      <c r="E133" s="52">
         <v>6</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="53">
         <v>20</v>
       </c>
       <c r="G133" s="24" t="s">
@@ -8744,28 +8709,28 @@
     </row>
     <row r="134" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C134" s="34"/>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134" s="54">
         <v>4</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="55">
         <v>59</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134" s="57">
         <f>SUM(E109:E134)</f>
         <v>142</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="58">
         <f>SUM(F109:F134)</f>
         <v>785</v>
       </c>
-      <c r="I134" s="6">
+      <c r="I134" s="59">
         <f>G134+(H134/60)</f>
         <v>155.08333333333334</v>
       </c>
-      <c r="J134" s="5" t="s">
+      <c r="J134" s="56" t="s">
         <v>296</v>
       </c>
       <c r="K134" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35440D43-8FAA-4391-8A5C-B61DDA87CCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1553,7 +1554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2082,7 +2083,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2120,9 +2121,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2155,9 +2156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,9 +2208,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2365,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6296,14 +6331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8737,13 +8772,13 @@
     </row>
     <row r="135" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C135" s="34"/>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="44">
         <v>1</v>
       </c>
-      <c r="F135" s="15">
+      <c r="F135" s="45">
         <v>49</v>
       </c>
       <c r="G135" s="35"/>
@@ -8754,13 +8789,13 @@
     </row>
     <row r="136" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C136" s="34"/>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="46">
         <v>7</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="47">
         <v>23</v>
       </c>
       <c r="G136" s="35"/>
@@ -8771,13 +8806,13 @@
     </row>
     <row r="137" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C137" s="34"/>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="46">
         <v>6</v>
       </c>
-      <c r="F137" s="16">
+      <c r="F137" s="47">
         <v>8</v>
       </c>
       <c r="G137" s="35"/>
@@ -8788,13 +8823,13 @@
     </row>
     <row r="138" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C138" s="34"/>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="46" t="s">
         <v>414</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="46">
         <v>2</v>
       </c>
-      <c r="F138" s="16">
+      <c r="F138" s="47">
         <v>49</v>
       </c>
       <c r="G138" s="35"/>
@@ -8805,13 +8840,13 @@
     </row>
     <row r="139" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C139" s="34"/>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="46">
         <v>2</v>
       </c>
-      <c r="F139" s="16">
+      <c r="F139" s="47">
         <v>41</v>
       </c>
       <c r="G139" s="35"/>
@@ -8822,13 +8857,13 @@
     </row>
     <row r="140" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C140" s="34"/>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="46">
         <v>5</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="47">
         <v>25</v>
       </c>
       <c r="G140" s="24" t="s">
@@ -8847,28 +8882,28 @@
     </row>
     <row r="141" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C141" s="34"/>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="48">
         <v>7</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="49">
         <v>6</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141" s="57">
         <f>SUM(E135:E141)</f>
         <v>30</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="58">
         <f>SUM(F135:F141)</f>
         <v>201</v>
       </c>
-      <c r="I141" s="6">
+      <c r="I141" s="59">
         <f>G141+(H141/60)</f>
         <v>33.35</v>
       </c>
-      <c r="J141" s="5">
+      <c r="J141" s="56">
         <v>1</v>
       </c>
       <c r="K141" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35440D43-8FAA-4391-8A5C-B61DDA87CCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B025B2-65CD-42A4-A9BF-287F698FA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N149" sqref="N149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8910,13 +8910,13 @@
     </row>
     <row r="142" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C142" s="34"/>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E142" s="50">
         <v>3</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="51">
         <v>22</v>
       </c>
       <c r="G142" s="35"/>
@@ -8927,13 +8927,13 @@
     </row>
     <row r="143" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C143" s="34"/>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="E143" s="13">
+      <c r="E143" s="52">
         <v>7</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="53">
         <v>48</v>
       </c>
       <c r="G143" s="35"/>
@@ -8944,13 +8944,13 @@
     </row>
     <row r="144" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C144" s="38"/>
-      <c r="D144" s="13" t="s">
+      <c r="D144" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="52">
         <v>3</v>
       </c>
-      <c r="F144" s="19">
+      <c r="F144" s="53">
         <v>56</v>
       </c>
       <c r="G144" s="35"/>
@@ -8965,13 +8965,13 @@
     </row>
     <row r="145" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C145" s="38"/>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="E145" s="13">
+      <c r="E145" s="52">
         <v>2</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="53">
         <v>4</v>
       </c>
       <c r="G145" s="35"/>
@@ -8986,13 +8986,13 @@
     </row>
     <row r="146" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C146" s="38"/>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E146" s="13">
+      <c r="E146" s="52">
         <v>8</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="53">
         <v>11</v>
       </c>
       <c r="G146" s="35"/>
@@ -9007,13 +9007,13 @@
     </row>
     <row r="147" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C147" s="38"/>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="52">
         <v>6</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="53">
         <v>49</v>
       </c>
       <c r="G147" s="35"/>
@@ -9028,13 +9028,13 @@
     </row>
     <row r="148" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C148" s="38"/>
-      <c r="D148" s="13" t="s">
+      <c r="D148" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E148" s="13">
+      <c r="E148" s="52">
         <v>3</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="53">
         <v>4</v>
       </c>
       <c r="G148" s="35"/>
@@ -9049,13 +9049,13 @@
     </row>
     <row r="149" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C149" s="38"/>
-      <c r="D149" s="13" t="s">
+      <c r="D149" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="52">
         <v>7</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="53">
         <v>43</v>
       </c>
       <c r="G149" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B025B2-65CD-42A4-A9BF-287F698FA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D375DC6-E257-4299-9162-A3E7193F9585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,8 +6337,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9070,13 +9070,13 @@
     </row>
     <row r="150" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C150" s="38"/>
-      <c r="D150" s="13" t="s">
+      <c r="D150" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="52">
         <v>7</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="53">
         <v>41</v>
       </c>
       <c r="G150" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D375DC6-E257-4299-9162-A3E7193F9585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04FCE6D-2130-415A-84D2-FEC072970AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6338,7 +6338,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9091,13 +9091,13 @@
     </row>
     <row r="151" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C151" s="38"/>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="52">
         <v>2</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="53">
         <v>58</v>
       </c>
       <c r="G151" s="35"/>
@@ -9112,13 +9112,13 @@
     </row>
     <row r="152" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C152" s="38"/>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="52">
         <v>4</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="53">
         <v>29</v>
       </c>
       <c r="G152" s="35"/>
@@ -9133,13 +9133,13 @@
     </row>
     <row r="153" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C153" s="38"/>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="52">
         <v>10</v>
       </c>
-      <c r="F153" s="19">
+      <c r="F153" s="53">
         <v>57</v>
       </c>
       <c r="G153" s="35"/>
@@ -9154,13 +9154,13 @@
     </row>
     <row r="154" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C154" s="38"/>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="52">
         <v>11</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="53">
         <v>53</v>
       </c>
       <c r="G154" s="35"/>
@@ -9175,13 +9175,13 @@
     </row>
     <row r="155" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C155" s="38"/>
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="52">
         <v>3</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F155" s="53">
         <v>5</v>
       </c>
       <c r="G155" s="35"/>
@@ -9196,13 +9196,13 @@
     </row>
     <row r="156" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C156" s="38"/>
-      <c r="D156" s="13" t="s">
+      <c r="D156" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="E156" s="13">
+      <c r="E156" s="52">
         <v>7</v>
       </c>
-      <c r="F156" s="19">
+      <c r="F156" s="53">
         <v>14</v>
       </c>
       <c r="G156" s="35"/>
@@ -9217,13 +9217,13 @@
     </row>
     <row r="157" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C157" s="38"/>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="52" t="s">
         <v>428</v>
       </c>
-      <c r="E157" s="13">
+      <c r="E157" s="52">
         <v>4</v>
       </c>
-      <c r="F157" s="19">
+      <c r="F157" s="53">
         <v>48</v>
       </c>
       <c r="G157" s="35"/>
@@ -9238,13 +9238,13 @@
     </row>
     <row r="158" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C158" s="38"/>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="52">
         <v>2</v>
       </c>
-      <c r="F158" s="19">
+      <c r="F158" s="53">
         <v>5</v>
       </c>
       <c r="G158" s="35"/>
@@ -9259,13 +9259,13 @@
     </row>
     <row r="159" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C159" s="38"/>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="52">
         <v>3</v>
       </c>
-      <c r="F159" s="19">
+      <c r="F159" s="53">
         <v>42</v>
       </c>
       <c r="G159" s="35"/>
@@ -9280,13 +9280,13 @@
     </row>
     <row r="160" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C160" s="34"/>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="E160" s="13">
+      <c r="E160" s="52">
         <v>6</v>
       </c>
-      <c r="F160" s="19">
+      <c r="F160" s="53">
         <v>26</v>
       </c>
       <c r="G160" s="35"/>
@@ -9297,13 +9297,13 @@
     </row>
     <row r="161" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C161" s="34"/>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="52">
         <v>8</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F161" s="53">
         <v>36</v>
       </c>
       <c r="G161" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04FCE6D-2130-415A-84D2-FEC072970AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05217F07-DF2F-44FD-B528-1371F10C3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6338,7 +6338,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9314,13 +9314,13 @@
     </row>
     <row r="162" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C162" s="34"/>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="52">
         <v>14</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F162" s="53">
         <v>25</v>
       </c>
       <c r="G162" s="35"/>
@@ -9331,13 +9331,13 @@
     </row>
     <row r="163" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C163" s="34"/>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="52">
         <v>14</v>
       </c>
-      <c r="F163" s="19">
+      <c r="F163" s="53">
         <v>41</v>
       </c>
       <c r="G163" s="35"/>
@@ -9348,13 +9348,13 @@
     </row>
     <row r="164" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C164" s="34"/>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="E164" s="13">
+      <c r="E164" s="52">
         <v>6</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="53">
         <v>51</v>
       </c>
       <c r="G164" s="35"/>
@@ -9365,13 +9365,13 @@
     </row>
     <row r="165" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C165" s="34"/>
-      <c r="D165" s="13" t="s">
+      <c r="D165" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="52">
         <v>7</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="53">
         <v>4</v>
       </c>
       <c r="G165" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05217F07-DF2F-44FD-B528-1371F10C3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4E516-81D3-4D60-9D41-859437C7E2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6338,7 +6338,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158"/>
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9382,13 +9382,13 @@
     </row>
     <row r="166" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C166" s="34"/>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="E166" s="13">
+      <c r="E166" s="52">
         <v>11</v>
       </c>
-      <c r="F166" s="19">
+      <c r="F166" s="53">
         <v>5</v>
       </c>
       <c r="G166" s="35"/>
@@ -9399,13 +9399,13 @@
     </row>
     <row r="167" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C167" s="34"/>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="E167" s="13">
+      <c r="E167" s="52">
         <v>1</v>
       </c>
-      <c r="F167" s="19">
+      <c r="F167" s="53">
         <v>26</v>
       </c>
       <c r="G167" s="35"/>
@@ -9416,13 +9416,13 @@
     </row>
     <row r="168" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C168" s="34"/>
-      <c r="D168" s="13" t="s">
+      <c r="D168" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E168" s="13">
+      <c r="E168" s="52">
         <v>2</v>
       </c>
-      <c r="F168" s="19">
+      <c r="F168" s="53">
         <v>11</v>
       </c>
       <c r="G168" s="35"/>
@@ -9433,13 +9433,13 @@
     </row>
     <row r="169" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C169" s="34"/>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="52">
         <v>7</v>
       </c>
-      <c r="F169" s="19">
+      <c r="F169" s="53">
         <v>25</v>
       </c>
       <c r="G169" s="35"/>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="170" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C170" s="34"/>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="E170" s="13">
+      <c r="E170" s="52">
         <v>3</v>
       </c>
-      <c r="F170" s="19">
+      <c r="F170" s="53">
         <v>14</v>
       </c>
       <c r="G170" s="24" t="s">

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4E516-81D3-4D60-9D41-859437C7E2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F4AF2-7948-4543-A1B5-B2970130FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="509">
   <si>
     <t>Name</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>Github e Greenkeeper</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -6338,7 +6341,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+      <selection activeCell="L154" sqref="L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9360,7 +9363,9 @@
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="I164" s="36"/>
-      <c r="J164" s="36"/>
+      <c r="J164" s="36" t="s">
+        <v>508</v>
+      </c>
       <c r="K164" s="37"/>
     </row>
     <row r="165" spans="3:11" x14ac:dyDescent="0.25">

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F4AF2-7948-4543-A1B5-B2970130FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1557,7 +1556,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2086,7 +2085,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2124,9 +2123,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2159,26 +2158,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,26 +2193,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2403,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6334,14 +6299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N178" sqref="N178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9480,28 +9445,28 @@
     </row>
     <row r="171" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C171" s="34"/>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171" s="54">
         <v>11</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="55">
         <v>8</v>
       </c>
-      <c r="G171" s="7">
+      <c r="G171" s="57">
         <f>SUM(E142:E171)</f>
         <v>182</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="58">
         <f>SUM(F142:F171)</f>
         <v>861</v>
       </c>
-      <c r="I171" s="6">
+      <c r="I171" s="59">
         <f>G171+(H171/60)</f>
         <v>196.35</v>
       </c>
-      <c r="J171" s="5" t="s">
+      <c r="J171" s="56" t="s">
         <v>298</v>
       </c>
       <c r="K171" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -6305,8 +6305,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N178" sqref="N178"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9473,13 +9473,13 @@
     </row>
     <row r="172" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C172" s="34"/>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="E172" s="9">
+      <c r="E172" s="44">
         <v>3</v>
       </c>
-      <c r="F172" s="15">
+      <c r="F172" s="45">
         <v>22</v>
       </c>
       <c r="G172" s="35"/>
@@ -9490,13 +9490,13 @@
     </row>
     <row r="173" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C173" s="34"/>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="46">
         <v>2</v>
       </c>
-      <c r="F173" s="16">
+      <c r="F173" s="47">
         <v>40</v>
       </c>
       <c r="G173" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -6306,7 +6306,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182"/>
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9507,13 +9507,13 @@
     </row>
     <row r="174" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C174" s="34"/>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="46">
         <v>4</v>
       </c>
-      <c r="F174" s="16">
+      <c r="F174" s="47">
         <v>46</v>
       </c>
       <c r="G174" s="35"/>
@@ -9524,13 +9524,13 @@
     </row>
     <row r="175" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C175" s="34"/>
-      <c r="D175" s="10" t="s">
+      <c r="D175" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="46">
         <v>3</v>
       </c>
-      <c r="F175" s="16">
+      <c r="F175" s="47">
         <v>51</v>
       </c>
       <c r="G175" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92FA09-6612-4CF1-903E-0E8F90B41A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1556,7 +1557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2085,7 +2086,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2123,9 +2124,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2158,9 +2159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2193,9 +2211,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2368,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6299,14 +6334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9541,13 +9576,13 @@
     </row>
     <row r="176" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C176" s="34"/>
-      <c r="D176" s="10" t="s">
+      <c r="D176" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="46">
         <v>12</v>
       </c>
-      <c r="F176" s="16">
+      <c r="F176" s="47">
         <v>4</v>
       </c>
       <c r="G176" s="35"/>
@@ -9558,13 +9593,13 @@
     </row>
     <row r="177" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C177" s="34"/>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="46">
         <v>7</v>
       </c>
-      <c r="F177" s="16">
+      <c r="F177" s="47">
         <v>12</v>
       </c>
       <c r="G177" s="35"/>
@@ -9575,13 +9610,13 @@
     </row>
     <row r="178" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C178" s="34"/>
-      <c r="D178" s="10" t="s">
+      <c r="D178" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="46">
         <v>1</v>
       </c>
-      <c r="F178" s="16">
+      <c r="F178" s="47">
         <v>28</v>
       </c>
       <c r="G178" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92FA09-6612-4CF1-903E-0E8F90B41A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8148FCA-4853-438F-BAAE-50AE7CB39EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6341,7 +6341,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J207" sqref="J207"/>
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9627,13 +9627,13 @@
     </row>
     <row r="179" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C179" s="34"/>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="46">
         <v>0</v>
       </c>
-      <c r="F179" s="16">
+      <c r="F179" s="47">
         <v>37</v>
       </c>
       <c r="G179" s="35"/>
@@ -9644,13 +9644,13 @@
     </row>
     <row r="180" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C180" s="34"/>
-      <c r="D180" s="10" t="s">
+      <c r="D180" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E180" s="46">
         <v>3</v>
       </c>
-      <c r="F180" s="16">
+      <c r="F180" s="47">
         <v>1</v>
       </c>
       <c r="G180" s="35"/>
@@ -9661,13 +9661,13 @@
     </row>
     <row r="181" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C181" s="34"/>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="46">
         <v>2</v>
       </c>
-      <c r="F181" s="16">
+      <c r="F181" s="47">
         <v>59</v>
       </c>
       <c r="G181" s="35"/>
@@ -9678,13 +9678,13 @@
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C182" s="34"/>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="E182" s="10">
+      <c r="E182" s="46">
         <v>9</v>
       </c>
-      <c r="F182" s="16">
+      <c r="F182" s="47">
         <v>4</v>
       </c>
       <c r="G182" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8148FCA-4853-438F-BAAE-50AE7CB39EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1557,7 +1556,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2086,7 +2085,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2124,9 +2123,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2159,26 +2158,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,26 +2193,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2403,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6334,14 +6299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9695,13 +9660,13 @@
     </row>
     <row r="183" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C183" s="34"/>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="E183" s="10">
+      <c r="E183" s="46">
         <v>9</v>
       </c>
-      <c r="F183" s="16">
+      <c r="F183" s="47">
         <v>2</v>
       </c>
       <c r="G183" s="35"/>
@@ -9712,13 +9677,13 @@
     </row>
     <row r="184" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C184" s="34"/>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="E184" s="10">
+      <c r="E184" s="46">
         <v>6</v>
       </c>
-      <c r="F184" s="16">
+      <c r="F184" s="47">
         <v>55</v>
       </c>
       <c r="G184" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7628A5C7-57CC-4D20-A64A-C2680154715F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1556,7 +1557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2085,7 +2086,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2123,9 +2124,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2158,9 +2159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2193,9 +2211,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2368,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6299,14 +6334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I180" sqref="I180"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9694,13 +9729,13 @@
     </row>
     <row r="185" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C185" s="34"/>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="E185" s="10">
+      <c r="E185" s="46">
         <v>5</v>
       </c>
-      <c r="F185" s="16">
+      <c r="F185" s="47">
         <v>14</v>
       </c>
       <c r="G185" s="35"/>
@@ -9711,13 +9746,13 @@
     </row>
     <row r="186" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C186" s="34"/>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E186" s="46">
         <v>9</v>
       </c>
-      <c r="F186" s="16">
+      <c r="F186" s="47">
         <v>46</v>
       </c>
       <c r="G186" s="35"/>
@@ -9728,13 +9763,13 @@
     </row>
     <row r="187" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C187" s="34"/>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="E187" s="10">
+      <c r="E187" s="46">
         <v>12</v>
       </c>
-      <c r="F187" s="16">
+      <c r="F187" s="47">
         <v>30</v>
       </c>
       <c r="G187" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7628A5C7-57CC-4D20-A64A-C2680154715F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFEC8B-CCDC-4392-9E83-B28D78320A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6340,8 +6340,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9780,13 +9780,13 @@
     </row>
     <row r="188" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C188" s="34"/>
-      <c r="D188" s="10" t="s">
+      <c r="D188" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="46">
         <v>12</v>
       </c>
-      <c r="F188" s="16">
+      <c r="F188" s="47">
         <v>23</v>
       </c>
       <c r="G188" s="35"/>
@@ -9797,13 +9797,13 @@
     </row>
     <row r="189" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C189" s="34"/>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="E189" s="10">
+      <c r="E189" s="46">
         <v>2</v>
       </c>
-      <c r="F189" s="16">
+      <c r="F189" s="47">
         <v>29</v>
       </c>
       <c r="G189" s="35"/>
@@ -9814,13 +9814,13 @@
     </row>
     <row r="190" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C190" s="34"/>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="46">
         <v>9</v>
       </c>
-      <c r="F190" s="16">
+      <c r="F190" s="47">
         <v>39</v>
       </c>
       <c r="G190" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFEC8B-CCDC-4392-9E83-B28D78320A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B227DB-49B5-48FA-A4D1-739CAF6EB121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="510">
   <si>
     <t>Name</t>
   </si>
@@ -1552,6 +1552,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -6341,7 +6344,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I183" sqref="I183"/>
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9774,7 +9777,9 @@
       </c>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
-      <c r="I187" s="36"/>
+      <c r="I187" s="36" t="s">
+        <v>509</v>
+      </c>
       <c r="J187" s="36"/>
       <c r="K187" s="37"/>
     </row>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B227DB-49B5-48FA-A4D1-739CAF6EB121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98220A1B-DDEF-4556-AD86-F9634CEFABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="509">
   <si>
     <t>Name</t>
   </si>
@@ -1552,9 +1552,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
 </sst>
 </file>
@@ -6344,7 +6341,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9777,9 +9774,7 @@
       </c>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
-      <c r="I187" s="36" t="s">
-        <v>509</v>
-      </c>
+      <c r="I187" s="36"/>
       <c r="J187" s="36"/>
       <c r="K187" s="37"/>
     </row>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98220A1B-DDEF-4556-AD86-F9634CEFABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1557,7 +1556,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2086,7 +2085,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2124,9 +2123,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2159,26 +2158,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,26 +2193,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2403,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6334,14 +6299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I183" sqref="I183"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N197" sqref="N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9831,13 +9796,13 @@
     </row>
     <row r="191" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C191" s="34"/>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E191" s="10">
+      <c r="E191" s="46">
         <v>8</v>
       </c>
-      <c r="F191" s="16">
+      <c r="F191" s="47">
         <v>25</v>
       </c>
       <c r="G191" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7506FE10-2068-4C6D-A8A4-51699828C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1556,7 +1557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2085,7 +2086,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2123,9 +2124,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2158,9 +2159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2193,9 +2211,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2368,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6299,14 +6334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N197" sqref="N197"/>
+      <selection activeCell="O193" sqref="O193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9813,13 +9848,13 @@
     </row>
     <row r="192" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C192" s="34"/>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="E192" s="10">
+      <c r="E192" s="46">
         <v>16</v>
       </c>
-      <c r="F192" s="16">
+      <c r="F192" s="47">
         <v>4</v>
       </c>
       <c r="G192" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7506FE10-2068-4C6D-A8A4-51699828C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC716A00-93B3-4393-8929-FF61E1270087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="509">
   <si>
     <t>Name</t>
   </si>
@@ -6341,7 +6341,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O193" sqref="O193"/>
+      <selection activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9863,7 +9863,7 @@
       <c r="J192" s="36"/>
       <c r="K192" s="37"/>
     </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C193" s="34"/>
       <c r="D193" s="10" t="s">
         <v>456</v>
@@ -9879,8 +9879,11 @@
       <c r="I193" s="36"/>
       <c r="J193" s="36"/>
       <c r="K193" s="37"/>
-    </row>
-    <row r="194" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="O193" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="194" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C194" s="34"/>
       <c r="D194" s="10" t="s">
         <v>457</v>
@@ -9905,7 +9908,7 @@
       </c>
       <c r="K194" s="37"/>
     </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C195" s="34"/>
       <c r="D195" s="11" t="s">
         <v>458</v>
@@ -9933,7 +9936,7 @@
       </c>
       <c r="K195" s="37"/>
     </row>
-    <row r="196" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C196" s="34"/>
       <c r="D196" s="12" t="s">
         <v>459</v>
@@ -9950,7 +9953,7 @@
       <c r="J196" s="36"/>
       <c r="K196" s="37"/>
     </row>
-    <row r="197" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C197" s="34"/>
       <c r="D197" s="13" t="s">
         <v>460</v>
@@ -9967,7 +9970,7 @@
       <c r="J197" s="36"/>
       <c r="K197" s="37"/>
     </row>
-    <row r="198" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C198" s="34"/>
       <c r="D198" s="13" t="s">
         <v>150</v>
@@ -9984,7 +9987,7 @@
       <c r="J198" s="36"/>
       <c r="K198" s="37"/>
     </row>
-    <row r="199" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C199" s="34"/>
       <c r="D199" s="13" t="s">
         <v>186</v>
@@ -10001,7 +10004,7 @@
       <c r="J199" s="36"/>
       <c r="K199" s="37"/>
     </row>
-    <row r="200" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C200" s="34"/>
       <c r="D200" s="13" t="s">
         <v>461</v>
@@ -10018,7 +10021,7 @@
       <c r="J200" s="36"/>
       <c r="K200" s="37"/>
     </row>
-    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C201" s="34"/>
       <c r="D201" s="13" t="s">
         <v>462</v>
@@ -10035,7 +10038,7 @@
       <c r="J201" s="36"/>
       <c r="K201" s="37"/>
     </row>
-    <row r="202" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C202" s="34"/>
       <c r="D202" s="13" t="s">
         <v>78</v>
@@ -10060,7 +10063,7 @@
       </c>
       <c r="K202" s="37"/>
     </row>
-    <row r="203" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C203" s="34"/>
       <c r="D203" s="14" t="s">
         <v>463</v>
@@ -10088,7 +10091,7 @@
       </c>
       <c r="K203" s="37"/>
     </row>
-    <row r="204" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C204" s="34"/>
       <c r="D204" s="9" t="s">
         <v>464</v>
@@ -10105,7 +10108,7 @@
       <c r="J204" s="36"/>
       <c r="K204" s="37"/>
     </row>
-    <row r="205" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C205" s="34"/>
       <c r="D205" s="10" t="s">
         <v>252</v>
@@ -10122,7 +10125,7 @@
       <c r="J205" s="36"/>
       <c r="K205" s="37"/>
     </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C206" s="34"/>
       <c r="D206" s="10" t="s">
         <v>465</v>
@@ -10139,7 +10142,7 @@
       <c r="J206" s="36"/>
       <c r="K206" s="37"/>
     </row>
-    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C207" s="34"/>
       <c r="D207" s="10" t="s">
         <v>466</v>
@@ -10156,7 +10159,7 @@
       <c r="J207" s="36"/>
       <c r="K207" s="37"/>
     </row>
-    <row r="208" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C208" s="34"/>
       <c r="D208" s="10" t="s">
         <v>467</v>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC716A00-93B3-4393-8929-FF61E1270087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900CE246-ADAB-4307-A551-8B8A26D57E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6340,8 +6340,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O200" sqref="O200"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O203" sqref="O203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,13 +9865,13 @@
     </row>
     <row r="193" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C193" s="34"/>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="E193" s="10">
+      <c r="E193" s="46">
         <v>7</v>
       </c>
-      <c r="F193" s="16">
+      <c r="F193" s="47">
         <v>40</v>
       </c>
       <c r="G193" s="35"/>
@@ -9885,13 +9885,13 @@
     </row>
     <row r="194" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C194" s="34"/>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="E194" s="10" t="s">
+      <c r="E194" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F194" s="16" t="s">
+      <c r="F194" s="47" t="s">
         <v>48</v>
       </c>
       <c r="G194" s="24" t="s">
@@ -9910,13 +9910,13 @@
     </row>
     <row r="195" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C195" s="34"/>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="E195" s="11">
+      <c r="E195" s="48">
         <v>3</v>
       </c>
-      <c r="F195" s="17">
+      <c r="F195" s="49">
         <v>9</v>
       </c>
       <c r="G195" s="7">

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900CE246-ADAB-4307-A551-8B8A26D57E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759D00A-0902-46DE-BC11-CCB401367BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6340,8 +6340,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O203" sqref="O203"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9931,20 +9931,20 @@
         <f>G195+(H195/60)</f>
         <v>154.33333333333334</v>
       </c>
-      <c r="J195" s="5" t="s">
+      <c r="J195" s="56" t="s">
         <v>296</v>
       </c>
       <c r="K195" s="37"/>
     </row>
     <row r="196" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C196" s="34"/>
-      <c r="D196" s="12" t="s">
+      <c r="D196" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="E196" s="12">
+      <c r="E196" s="50">
         <v>10</v>
       </c>
-      <c r="F196" s="18">
+      <c r="F196" s="51">
         <v>11</v>
       </c>
       <c r="G196" s="35"/>
@@ -9955,13 +9955,13 @@
     </row>
     <row r="197" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C197" s="34"/>
-      <c r="D197" s="13" t="s">
+      <c r="D197" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="E197" s="13">
+      <c r="E197" s="52">
         <v>3</v>
       </c>
-      <c r="F197" s="19">
+      <c r="F197" s="53">
         <v>49</v>
       </c>
       <c r="G197" s="35"/>
@@ -9972,13 +9972,13 @@
     </row>
     <row r="198" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C198" s="34"/>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E198" s="13">
+      <c r="E198" s="52">
         <v>12</v>
       </c>
-      <c r="F198" s="19">
+      <c r="F198" s="53">
         <v>47</v>
       </c>
       <c r="G198" s="35"/>
@@ -9989,13 +9989,13 @@
     </row>
     <row r="199" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C199" s="34"/>
-      <c r="D199" s="13" t="s">
+      <c r="D199" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E199" s="13">
+      <c r="E199" s="52">
         <v>5</v>
       </c>
-      <c r="F199" s="19">
+      <c r="F199" s="53">
         <v>34</v>
       </c>
       <c r="G199" s="35"/>
@@ -10006,13 +10006,13 @@
     </row>
     <row r="200" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C200" s="34"/>
-      <c r="D200" s="13" t="s">
+      <c r="D200" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="E200" s="13">
+      <c r="E200" s="52">
         <v>15</v>
       </c>
-      <c r="F200" s="19">
+      <c r="F200" s="53">
         <v>29</v>
       </c>
       <c r="G200" s="35"/>
@@ -10023,13 +10023,13 @@
     </row>
     <row r="201" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C201" s="34"/>
-      <c r="D201" s="13" t="s">
+      <c r="D201" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="E201" s="13">
+      <c r="E201" s="52">
         <v>6</v>
       </c>
-      <c r="F201" s="19">
+      <c r="F201" s="53">
         <v>50</v>
       </c>
       <c r="G201" s="35"/>
@@ -10040,13 +10040,13 @@
     </row>
     <row r="202" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C202" s="34"/>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E202" s="13">
+      <c r="E202" s="52">
         <v>3</v>
       </c>
-      <c r="F202" s="19">
+      <c r="F202" s="53">
         <v>47</v>
       </c>
       <c r="G202" s="24" t="s">
@@ -10065,13 +10065,13 @@
     </row>
     <row r="203" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C203" s="34"/>
-      <c r="D203" s="14" t="s">
+      <c r="D203" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203" s="54">
         <v>5</v>
       </c>
-      <c r="F203" s="20">
+      <c r="F203" s="55">
         <v>23</v>
       </c>
       <c r="G203" s="7">
@@ -10086,7 +10086,7 @@
         <f>G203+(H203/60)</f>
         <v>63.833333333333336</v>
       </c>
-      <c r="J203" s="5">
+      <c r="J203" s="56">
         <v>1</v>
       </c>
       <c r="K203" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759D00A-0902-46DE-BC11-CCB401367BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB4399-15B5-4C65-9C68-36B48229FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6340,8 +6340,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M195" sqref="M195"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K217" sqref="K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10093,13 +10093,13 @@
     </row>
     <row r="204" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C204" s="34"/>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="44">
         <v>4</v>
       </c>
-      <c r="F204" s="15">
+      <c r="F204" s="45">
         <v>36</v>
       </c>
       <c r="G204" s="35"/>
@@ -10110,13 +10110,13 @@
     </row>
     <row r="205" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C205" s="34"/>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="E205" s="10">
+      <c r="E205" s="46">
         <v>5</v>
       </c>
-      <c r="F205" s="16">
+      <c r="F205" s="47">
         <v>5</v>
       </c>
       <c r="G205" s="35"/>
@@ -10127,13 +10127,13 @@
     </row>
     <row r="206" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C206" s="34"/>
-      <c r="D206" s="10" t="s">
+      <c r="D206" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="E206" s="10">
+      <c r="E206" s="46">
         <v>2</v>
       </c>
-      <c r="F206" s="16">
+      <c r="F206" s="47">
         <v>33</v>
       </c>
       <c r="G206" s="35"/>
@@ -10144,13 +10144,13 @@
     </row>
     <row r="207" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C207" s="34"/>
-      <c r="D207" s="10" t="s">
+      <c r="D207" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="E207" s="10">
+      <c r="E207" s="46">
         <v>5</v>
       </c>
-      <c r="F207" s="16">
+      <c r="F207" s="47">
         <v>57</v>
       </c>
       <c r="G207" s="35"/>
@@ -10161,13 +10161,13 @@
     </row>
     <row r="208" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C208" s="34"/>
-      <c r="D208" s="10" t="s">
+      <c r="D208" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="E208" s="10">
+      <c r="E208" s="46">
         <v>6</v>
       </c>
-      <c r="F208" s="16">
+      <c r="F208" s="47">
         <v>1</v>
       </c>
       <c r="G208" s="35"/>
@@ -10178,13 +10178,13 @@
     </row>
     <row r="209" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C209" s="34"/>
-      <c r="D209" s="10" t="s">
+      <c r="D209" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="E209" s="10">
+      <c r="E209" s="46">
         <v>1</v>
       </c>
-      <c r="F209" s="16">
+      <c r="F209" s="47">
         <v>49</v>
       </c>
       <c r="G209" s="35"/>
@@ -10195,13 +10195,13 @@
     </row>
     <row r="210" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C210" s="34"/>
-      <c r="D210" s="10" t="s">
+      <c r="D210" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="E210" s="10">
+      <c r="E210" s="46">
         <v>6</v>
       </c>
-      <c r="F210" s="16">
+      <c r="F210" s="47">
         <v>25</v>
       </c>
       <c r="G210" s="35"/>
@@ -10212,13 +10212,13 @@
     </row>
     <row r="211" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C211" s="34"/>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="E211" s="10">
+      <c r="E211" s="46">
         <v>3</v>
       </c>
-      <c r="F211" s="16">
+      <c r="F211" s="47">
         <v>1</v>
       </c>
       <c r="G211" s="24" t="s">
@@ -10237,13 +10237,13 @@
     </row>
     <row r="212" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C212" s="34"/>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="E212" s="11">
+      <c r="E212" s="48">
         <v>8</v>
       </c>
-      <c r="F212" s="17">
+      <c r="F212" s="49">
         <v>43</v>
       </c>
       <c r="G212" s="7">
@@ -10258,7 +10258,7 @@
         <f>G212+(H212/60)</f>
         <v>44.166666666666664</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="56">
         <v>1</v>
       </c>
       <c r="K212" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB4399-15B5-4C65-9C68-36B48229FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52269F2-4D7C-4A18-995E-E512356B9083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6340,8 +6340,8 @@
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K217" sqref="K217"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10265,13 +10265,13 @@
     </row>
     <row r="213" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C213" s="34"/>
-      <c r="D213" s="12" t="s">
+      <c r="D213" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="E213" s="12">
+      <c r="E213" s="50">
         <v>10</v>
       </c>
-      <c r="F213" s="18">
+      <c r="F213" s="51">
         <v>43</v>
       </c>
       <c r="G213" s="35"/>
@@ -10282,13 +10282,13 @@
     </row>
     <row r="214" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C214" s="34"/>
-      <c r="D214" s="13" t="s">
+      <c r="D214" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="E214" s="13">
+      <c r="E214" s="52">
         <v>10</v>
       </c>
-      <c r="F214" s="19">
+      <c r="F214" s="53">
         <v>18</v>
       </c>
       <c r="G214" s="35"/>
@@ -10299,13 +10299,13 @@
     </row>
     <row r="215" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C215" s="34"/>
-      <c r="D215" s="13" t="s">
+      <c r="D215" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="E215" s="13">
+      <c r="E215" s="52">
         <v>5</v>
       </c>
-      <c r="F215" s="19">
+      <c r="F215" s="53">
         <v>20</v>
       </c>
       <c r="G215" s="35"/>
@@ -10316,13 +10316,13 @@
     </row>
     <row r="216" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C216" s="34"/>
-      <c r="D216" s="13" t="s">
+      <c r="D216" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="E216" s="13">
+      <c r="E216" s="52">
         <v>8</v>
       </c>
-      <c r="F216" s="19">
+      <c r="F216" s="53">
         <v>25</v>
       </c>
       <c r="G216" s="35"/>
@@ -10333,13 +10333,13 @@
     </row>
     <row r="217" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C217" s="34"/>
-      <c r="D217" s="13" t="s">
+      <c r="D217" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="E217" s="13">
+      <c r="E217" s="52">
         <v>9</v>
       </c>
-      <c r="F217" s="19">
+      <c r="F217" s="53">
         <v>25</v>
       </c>
       <c r="G217" s="35"/>
@@ -10350,13 +10350,13 @@
     </row>
     <row r="218" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C218" s="34"/>
-      <c r="D218" s="13" t="s">
+      <c r="D218" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="E218" s="13">
+      <c r="E218" s="52">
         <v>5</v>
       </c>
-      <c r="F218" s="19">
+      <c r="F218" s="53">
         <v>22</v>
       </c>
       <c r="G218" s="35"/>
@@ -10367,13 +10367,13 @@
     </row>
     <row r="219" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C219" s="34"/>
-      <c r="D219" s="13" t="s">
+      <c r="D219" s="52" t="s">
         <v>477</v>
       </c>
-      <c r="E219" s="13">
+      <c r="E219" s="52">
         <v>5</v>
       </c>
-      <c r="F219" s="19">
+      <c r="F219" s="53">
         <v>28</v>
       </c>
       <c r="G219" s="35"/>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="220" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C220" s="34"/>
-      <c r="D220" s="13" t="s">
+      <c r="D220" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="E220" s="13">
+      <c r="E220" s="52">
         <v>7</v>
       </c>
-      <c r="F220" s="19">
+      <c r="F220" s="53">
         <v>53</v>
       </c>
       <c r="G220" s="35"/>
@@ -10401,13 +10401,13 @@
     </row>
     <row r="221" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C221" s="34"/>
-      <c r="D221" s="13" t="s">
+      <c r="D221" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="E221" s="13">
+      <c r="E221" s="52">
         <v>4</v>
       </c>
-      <c r="F221" s="19">
+      <c r="F221" s="53">
         <v>21</v>
       </c>
       <c r="G221" s="35"/>
@@ -10418,13 +10418,13 @@
     </row>
     <row r="222" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C222" s="34"/>
-      <c r="D222" s="13" t="s">
+      <c r="D222" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="E222" s="13">
+      <c r="E222" s="52">
         <v>4</v>
       </c>
-      <c r="F222" s="19">
+      <c r="F222" s="53">
         <v>59</v>
       </c>
       <c r="G222" s="24" t="s">
@@ -10443,13 +10443,13 @@
     </row>
     <row r="223" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C223" s="34"/>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="E223" s="14">
+      <c r="E223" s="54">
         <v>11</v>
       </c>
-      <c r="F223" s="20">
+      <c r="F223" s="55">
         <v>52</v>
       </c>
       <c r="G223" s="7">
@@ -10464,20 +10464,20 @@
         <f>G223+(H223/60)</f>
         <v>84.1</v>
       </c>
-      <c r="J223" s="5" t="s">
+      <c r="J223" s="56" t="s">
         <v>297</v>
       </c>
       <c r="K223" s="37"/>
     </row>
     <row r="224" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C224" s="34"/>
-      <c r="D224" s="9" t="s">
+      <c r="D224" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="E224" s="9">
+      <c r="E224" s="44">
         <v>9</v>
       </c>
-      <c r="F224" s="15">
+      <c r="F224" s="45">
         <v>8</v>
       </c>
       <c r="G224" s="35"/>
@@ -10488,13 +10488,13 @@
     </row>
     <row r="225" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C225" s="34"/>
-      <c r="D225" s="10" t="s">
+      <c r="D225" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="E225" s="10">
+      <c r="E225" s="46">
         <v>7</v>
       </c>
-      <c r="F225" s="16">
+      <c r="F225" s="47">
         <v>39</v>
       </c>
       <c r="G225" s="35"/>
@@ -10505,13 +10505,13 @@
     </row>
     <row r="226" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C226" s="34"/>
-      <c r="D226" s="10" t="s">
+      <c r="D226" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="E226" s="10">
+      <c r="E226" s="46">
         <v>4</v>
       </c>
-      <c r="F226" s="16">
+      <c r="F226" s="47">
         <v>48</v>
       </c>
       <c r="G226" s="35"/>
@@ -10522,13 +10522,13 @@
     </row>
     <row r="227" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C227" s="34"/>
-      <c r="D227" s="10" t="s">
+      <c r="D227" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="E227" s="10">
+      <c r="E227" s="46">
         <v>5</v>
       </c>
-      <c r="F227" s="16">
+      <c r="F227" s="47">
         <v>5</v>
       </c>
       <c r="G227" s="35"/>
@@ -10539,13 +10539,13 @@
     </row>
     <row r="228" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C228" s="34"/>
-      <c r="D228" s="10" t="s">
+      <c r="D228" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="E228" s="10">
+      <c r="E228" s="46">
         <v>6</v>
       </c>
-      <c r="F228" s="16">
+      <c r="F228" s="47">
         <v>29</v>
       </c>
       <c r="G228" s="35"/>
@@ -10556,13 +10556,13 @@
     </row>
     <row r="229" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C229" s="34"/>
-      <c r="D229" s="10" t="s">
+      <c r="D229" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="E229" s="10">
+      <c r="E229" s="46">
         <v>6</v>
       </c>
-      <c r="F229" s="16">
+      <c r="F229" s="47">
         <v>10</v>
       </c>
       <c r="G229" s="35"/>
@@ -10573,13 +10573,13 @@
     </row>
     <row r="230" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C230" s="34"/>
-      <c r="D230" s="10" t="s">
+      <c r="D230" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="E230" s="10">
+      <c r="E230" s="46">
         <v>2</v>
       </c>
-      <c r="F230" s="16">
+      <c r="F230" s="47">
         <v>49</v>
       </c>
       <c r="G230" s="35"/>
@@ -10590,13 +10590,13 @@
     </row>
     <row r="231" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C231" s="34"/>
-      <c r="D231" s="10" t="s">
+      <c r="D231" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="E231" s="10">
+      <c r="E231" s="46">
         <v>4</v>
       </c>
-      <c r="F231" s="16">
+      <c r="F231" s="47">
         <v>44</v>
       </c>
       <c r="G231" s="35"/>
@@ -10607,13 +10607,13 @@
     </row>
     <row r="232" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C232" s="34"/>
-      <c r="D232" s="10" t="s">
+      <c r="D232" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="E232" s="10">
+      <c r="E232" s="46">
         <v>9</v>
       </c>
-      <c r="F232" s="16">
+      <c r="F232" s="47">
         <v>53</v>
       </c>
       <c r="G232" s="35"/>
@@ -10624,13 +10624,13 @@
     </row>
     <row r="233" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C233" s="34"/>
-      <c r="D233" s="10" t="s">
+      <c r="D233" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="E233" s="10">
+      <c r="E233" s="46">
         <v>2</v>
       </c>
-      <c r="F233" s="16">
+      <c r="F233" s="47">
         <v>25</v>
       </c>
       <c r="G233" s="35"/>
@@ -10641,13 +10641,13 @@
     </row>
     <row r="234" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C234" s="34"/>
-      <c r="D234" s="10" t="s">
+      <c r="D234" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="E234" s="10">
+      <c r="E234" s="46">
         <v>6</v>
       </c>
-      <c r="F234" s="16">
+      <c r="F234" s="47">
         <v>4</v>
       </c>
       <c r="G234" s="35"/>
@@ -10658,13 +10658,13 @@
     </row>
     <row r="235" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C235" s="34"/>
-      <c r="D235" s="10" t="s">
+      <c r="D235" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="E235" s="10">
+      <c r="E235" s="46">
         <v>3</v>
       </c>
-      <c r="F235" s="16">
+      <c r="F235" s="47">
         <v>17</v>
       </c>
       <c r="G235" s="35"/>
@@ -10675,13 +10675,13 @@
     </row>
     <row r="236" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C236" s="34"/>
-      <c r="D236" s="10" t="s">
+      <c r="D236" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="E236" s="10">
+      <c r="E236" s="46">
         <v>4</v>
       </c>
-      <c r="F236" s="16">
+      <c r="F236" s="47">
         <v>26</v>
       </c>
       <c r="G236" s="35"/>
@@ -10692,13 +10692,13 @@
     </row>
     <row r="237" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C237" s="34"/>
-      <c r="D237" s="10" t="s">
+      <c r="D237" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="E237" s="10">
+      <c r="E237" s="46">
         <v>10</v>
       </c>
-      <c r="F237" s="16">
+      <c r="F237" s="47">
         <v>38</v>
       </c>
       <c r="G237" s="24" t="s">
@@ -10717,13 +10717,13 @@
     </row>
     <row r="238" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C238" s="34"/>
-      <c r="D238" s="11" t="s">
+      <c r="D238" s="48" t="s">
         <v>495</v>
       </c>
-      <c r="E238" s="11">
+      <c r="E238" s="48">
         <v>11</v>
       </c>
-      <c r="F238" s="17">
+      <c r="F238" s="49">
         <v>24</v>
       </c>
       <c r="G238" s="7">
@@ -10738,20 +10738,20 @@
         <f>G238+(H238/60)</f>
         <v>94.983333333333334</v>
       </c>
-      <c r="J238" s="5" t="s">
+      <c r="J238" s="56" t="s">
         <v>297</v>
       </c>
       <c r="K238" s="37"/>
     </row>
     <row r="239" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C239" s="34"/>
-      <c r="D239" s="12" t="s">
+      <c r="D239" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="E239" s="12">
+      <c r="E239" s="50">
         <v>14</v>
       </c>
-      <c r="F239" s="18">
+      <c r="F239" s="51">
         <v>37</v>
       </c>
       <c r="G239" s="35"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52269F2-4D7C-4A18-995E-E512356B9083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF1ED8B-6799-49EA-A394-27E24885691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6341,7 +6341,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H232" sqref="H232"/>
+      <selection activeCell="M239" sqref="M239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10762,13 +10762,13 @@
     </row>
     <row r="240" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C240" s="34"/>
-      <c r="D240" s="13" t="s">
+      <c r="D240" s="52" t="s">
         <v>497</v>
       </c>
-      <c r="E240" s="13">
+      <c r="E240" s="52">
         <v>8</v>
       </c>
-      <c r="F240" s="19">
+      <c r="F240" s="53">
         <v>59</v>
       </c>
       <c r="G240" s="35"/>
@@ -10779,13 +10779,13 @@
     </row>
     <row r="241" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C241" s="34"/>
-      <c r="D241" s="13" t="s">
+      <c r="D241" s="52" t="s">
         <v>498</v>
       </c>
-      <c r="E241" s="13">
+      <c r="E241" s="52">
         <v>10</v>
       </c>
-      <c r="F241" s="19">
+      <c r="F241" s="53">
         <v>42</v>
       </c>
       <c r="G241" s="35"/>
@@ -10796,13 +10796,13 @@
     </row>
     <row r="242" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C242" s="34"/>
-      <c r="D242" s="13" t="s">
+      <c r="D242" s="52" t="s">
         <v>499</v>
       </c>
-      <c r="E242" s="13">
+      <c r="E242" s="52">
         <v>9</v>
       </c>
-      <c r="F242" s="19">
+      <c r="F242" s="53">
         <v>47</v>
       </c>
       <c r="G242" s="35"/>
@@ -10813,13 +10813,13 @@
     </row>
     <row r="243" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C243" s="34"/>
-      <c r="D243" s="13" t="s">
+      <c r="D243" s="52" t="s">
         <v>500</v>
       </c>
-      <c r="E243" s="13">
+      <c r="E243" s="52">
         <v>7</v>
       </c>
-      <c r="F243" s="19">
+      <c r="F243" s="53">
         <v>18</v>
       </c>
       <c r="G243" s="35"/>
@@ -10830,13 +10830,13 @@
     </row>
     <row r="244" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C244" s="34"/>
-      <c r="D244" s="13" t="s">
+      <c r="D244" s="52" t="s">
         <v>501</v>
       </c>
-      <c r="E244" s="13">
+      <c r="E244" s="52">
         <v>5</v>
       </c>
-      <c r="F244" s="19">
+      <c r="F244" s="53">
         <v>40</v>
       </c>
       <c r="G244" s="24" t="s">
@@ -10855,13 +10855,13 @@
     </row>
     <row r="245" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C245" s="34"/>
-      <c r="D245" s="14" t="s">
+      <c r="D245" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="E245" s="14">
+      <c r="E245" s="54">
         <v>8</v>
       </c>
-      <c r="F245" s="20">
+      <c r="F245" s="55">
         <v>26</v>
       </c>
       <c r="G245" s="7">
@@ -10876,7 +10876,7 @@
         <f>G245+(H245/60)</f>
         <v>65.483333333333334</v>
       </c>
-      <c r="J245" s="5">
+      <c r="J245" s="56">
         <v>1</v>
       </c>
       <c r="K245" s="37"/>

--- a/just-random/class-control.xlsx
+++ b/just-random/class-control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF1ED8B-6799-49EA-A394-27E24885691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F0D7F-8A93-47B8-9B1A-F603F72D2D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6341,7 +6341,7 @@
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M239" sqref="M239"/>
+      <selection activeCell="M242" sqref="M242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10883,13 +10883,13 @@
     </row>
     <row r="246" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C246" s="34"/>
-      <c r="D246" s="9" t="s">
+      <c r="D246" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="E246" s="9">
+      <c r="E246" s="44">
         <v>7</v>
       </c>
-      <c r="F246" s="15">
+      <c r="F246" s="45">
         <v>30</v>
       </c>
       <c r="G246" s="35"/>
@@ -10900,13 +10900,13 @@
     </row>
     <row r="247" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C247" s="34"/>
-      <c r="D247" s="10" t="s">
+      <c r="D247" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="E247" s="10">
+      <c r="E247" s="46">
         <v>1</v>
       </c>
-      <c r="F247" s="16">
+      <c r="F247" s="47">
         <v>49</v>
       </c>
       <c r="G247" s="35"/>
@@ -10917,13 +10917,13 @@
     </row>
     <row r="248" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C248" s="34"/>
-      <c r="D248" s="10" t="s">
+      <c r="D248" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="E248" s="10">
+      <c r="E248" s="46">
         <v>5</v>
       </c>
-      <c r="F248" s="16">
+      <c r="F248" s="47">
         <v>58</v>
       </c>
       <c r="G248" s="35"/>
@@ -10934,13 +10934,13 @@
     </row>
     <row r="249" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C249" s="34"/>
-      <c r="D249" s="10" t="s">
+      <c r="D249" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="E249" s="10">
+      <c r="E249" s="46">
         <v>2</v>
       </c>
-      <c r="F249" s="16">
+      <c r="F249" s="47">
         <v>33</v>
       </c>
       <c r="G249" s="24" t="s">
@@ -10959,13 +10959,13 @@
     </row>
     <row r="250" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C250" s="34"/>
-      <c r="D250" s="11" t="s">
+      <c r="D250" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="E250" s="11">
+      <c r="E250" s="48">
         <v>4</v>
       </c>
-      <c r="F250" s="17">
+      <c r="F250" s="49">
         <v>3</v>
       </c>
       <c r="G250" s="7">
@@ -10980,7 +10980,7 @@
         <f>G250+(H250/60)</f>
         <v>21.883333333333333</v>
       </c>
-      <c r="J250" s="5">
+      <c r="J250" s="56">
         <v>1</v>
       </c>
       <c r="K250" s="37"/>
